--- a/data/trans_dic/P14_1-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P14_1-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz) (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,22 +602,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>18,56%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,62</t>
+          <t>0,55; 5,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,7; 20,74</t>
+          <t>12,04; 23,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,38</t>
+          <t>1,22; 6,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,81; 20,97</t>
+          <t>14,19; 25,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,39</t>
+          <t>1,4; 4,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,51; 19,68</t>
+          <t>14,88; 23,4</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>20,41%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,66; 26,16</t>
+          <t>12,79; 26,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 10,17</t>
+          <t>2,26; 8,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,5; 26,28</t>
+          <t>15,72; 29,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,74</t>
+          <t>1,29; 5,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,85; 24,42</t>
+          <t>16,22; 25,81</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,31%</t>
+          <t>20,52%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 13,16</t>
+          <t>0,0; 14,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,42; 34,65</t>
+          <t>4,53; 34,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,16</t>
+          <t>0,0; 12,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 35,29</t>
+          <t>12,21; 41,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,87</t>
+          <t>0,0; 11,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,52; 30,72</t>
+          <t>12,03; 33,71</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>20,97%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>19,51%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,64</t>
+          <t>0,68; 3,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,67; 21,92</t>
+          <t>13,67; 22,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,63</t>
+          <t>2,23; 6,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,88; 21,96</t>
+          <t>16,77; 25,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,3</t>
+          <t>1,87; 4,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,26; 21,15</t>
+          <t>16,69; 22,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de la garganta o nariz) (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9938</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>63658</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16604</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>82434</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26542</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>146092</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2376; 24727</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>44073; 85047</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6229; 33025</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>59736; 107605</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13137; 46666</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>117102; 184189</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3006</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>60765</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20097</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>73305</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23103</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>134069</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18622</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>40717; 83978</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9594; 37736</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>53203; 98345</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10149; 42373</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>106558; 169493</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2716</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12434</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3238</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>20637</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5954</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>33071</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14736</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3609; 27748</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 13140</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9957; 33469</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 22738</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19395; 54320</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15660</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>136856</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>39939</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>176376</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>55599</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>313233</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6019; 31473</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>104485; 173439</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23044; 63942</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>141050; 210999</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>36046; 85434</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>267916; 359511</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>